--- a/va_facility_data_2025-02-20/Orangeburg VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Orangeburg%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Orangeburg VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Orangeburg%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="R74cd140b9f7d4ff681e5ea4078c46ed5"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R911ea23199924eedb0aa0cb68e7fabfd"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="Ra9b0643f21024b8d8d3188b9a5140279"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="R4d0fe18422de4d02ba347da8061f3fd7"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R9eda07cfe9c4497da5e01e1a4bd6499a"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="R0ea3df4cc7d2402cb12c0efbca2e60ed"/>
   </x:sheets>
 </x:workbook>
 </file>
